--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>46763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36009</v>
+        <v>34778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61887</v>
+        <v>62182</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04532484009171583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03490142879204405</v>
+        <v>0.03370883283188742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05998425600166478</v>
+        <v>0.0602700231128053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>107331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87406</v>
+        <v>90389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126492</v>
+        <v>126701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08161388351444127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06646262502783658</v>
+        <v>0.06873091871932739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09618304766786502</v>
+        <v>0.09634252370340876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -786,19 +786,19 @@
         <v>154094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132987</v>
+        <v>130242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178466</v>
+        <v>179864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06566038554378702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05666640956164412</v>
+        <v>0.05549702140243742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07604530966031706</v>
+        <v>0.07664106307977445</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>984960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>969836</v>
+        <v>969541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>995714</v>
+        <v>996945</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9546751599082841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9400157439983351</v>
+        <v>0.9397299768871946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9650985712079557</v>
+        <v>0.9662911671681126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1185</v>
@@ -836,19 +836,19 @@
         <v>1207782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1188621</v>
+        <v>1188412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1227707</v>
+        <v>1224724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9183861164855588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9038169523321352</v>
+        <v>0.9036574762965912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9335373749721635</v>
+        <v>0.9312690812806722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2175</v>
@@ -857,19 +857,19 @@
         <v>2192741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2168369</v>
+        <v>2166971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2213848</v>
+        <v>2216593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9343396144562129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.923954690339683</v>
+        <v>0.9233589369202255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9433335904383559</v>
+        <v>0.9445029785975626</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15821</v>
+        <v>15399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36103</v>
+        <v>35665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01432946191958692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009348424836740265</v>
+        <v>0.009098791828556553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02133250635571958</v>
+        <v>0.02107382866683704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -982,19 +982,19 @@
         <v>59409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44450</v>
+        <v>44621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75735</v>
+        <v>74872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03741889842175245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02799725462247038</v>
+        <v>0.02810442305915964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04770213162011686</v>
+        <v>0.04715832716720048</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -1003,19 +1003,19 @@
         <v>83660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66992</v>
+        <v>66646</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103208</v>
+        <v>103440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02550559680056021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02042384097487912</v>
+        <v>0.02031848893334296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03146532560427153</v>
+        <v>0.0315358948552777</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1668143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1656291</v>
+        <v>1656729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1676573</v>
+        <v>1676995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856705380804131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9786674936442804</v>
+        <v>0.9789261713331622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906515751632599</v>
+        <v>0.9909012081714434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1053,19 +1053,19 @@
         <v>1528264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1511938</v>
+        <v>1512801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1543223</v>
+        <v>1543052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9625811015782475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9522978683798832</v>
+        <v>0.9528416728327995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9720027453775295</v>
+        <v>0.9718955769408404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3120</v>
@@ -1074,19 +1074,19 @@
         <v>3196407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3176859</v>
+        <v>3176627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3213075</v>
+        <v>3213421</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9744944031994398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9685346743957284</v>
+        <v>0.9684641051447223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9795761590251209</v>
+        <v>0.979681511066657</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7425</v>
+        <v>7080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22585</v>
+        <v>23342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02455189760245917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01346636769256018</v>
+        <v>0.01284048547742715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04095915744603497</v>
+        <v>0.04233121925735294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>13398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7511</v>
+        <v>7627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22744</v>
+        <v>22153</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02812203598011169</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01576493933872349</v>
+        <v>0.01601009413415066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04773977460924533</v>
+        <v>0.04650004664102306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1220,19 +1220,19 @@
         <v>26936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18321</v>
+        <v>17766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39385</v>
+        <v>38078</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02620671671020989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01782523520771893</v>
+        <v>0.01728517528343353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03831905536146631</v>
+        <v>0.03704704082386869</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>537870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528823</v>
+        <v>528066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543983</v>
+        <v>544328</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9754481023975409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.959040842553965</v>
+        <v>0.9576687807426471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9865336323074398</v>
+        <v>0.9871595145225729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>439</v>
@@ -1270,19 +1270,19 @@
         <v>463014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453668</v>
+        <v>454259</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>468901</v>
+        <v>468785</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9718779640198884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9522602253907547</v>
+        <v>0.9534999533589769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9842350606612765</v>
+        <v>0.9839899058658493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>953</v>
@@ -1291,19 +1291,19 @@
         <v>1000884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>988435</v>
+        <v>989742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1009499</v>
+        <v>1010054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9737932832897901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9616809446385345</v>
+        <v>0.9629529591761312</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9821747647922812</v>
+        <v>0.9827148247165666</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>84552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02581323006838105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -1416,19 +1416,19 @@
         <v>180138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05330795268054919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -1437,19 +1437,19 @@
         <v>264690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03977475787123594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3190973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3172325</v>
+        <v>3171075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3208522</v>
+        <v>3207969</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741867699316189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684936609587439</v>
+        <v>0.9681119770052193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9795442829908503</v>
+        <v>0.9793754554909468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3120</v>
@@ -1487,19 +1487,19 @@
         <v>3199059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3171903</v>
+        <v>3168958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3222547</v>
+        <v>3223251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9466920473194508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9386557094669123</v>
+        <v>0.9377842884865669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9536428713444837</v>
+        <v>0.9538511697895315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6248</v>
@@ -1508,19 +1508,19 @@
         <v>6390032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6359512</v>
+        <v>6355858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6421416</v>
+        <v>6420607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.960225242128764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9556389902468033</v>
+        <v>0.955089976172296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9649412304989331</v>
+        <v>0.9648197452481996</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>50760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38155</v>
+        <v>36825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70782</v>
+        <v>66276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05212401612972242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03918091630598913</v>
+        <v>0.03781488860468991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07268406835770386</v>
+        <v>0.06805764368797916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -1872,19 +1872,19 @@
         <v>145894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124433</v>
+        <v>125188</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171212</v>
+        <v>168991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1093868418606579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09329657580953292</v>
+        <v>0.09386264907655202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.128369525569094</v>
+        <v>0.1267047099226652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -1893,19 +1893,19 @@
         <v>196653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168718</v>
+        <v>170396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226427</v>
+        <v>224950</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0852210815657642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07311525448810674</v>
+        <v>0.07384236697746828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0981235703259315</v>
+        <v>0.0974837028724615</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>923068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>903046</v>
+        <v>907552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>935673</v>
+        <v>937003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9478759838702776</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9273159316422964</v>
+        <v>0.9319423563120198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9608190836940109</v>
+        <v>0.9621851113953086</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1107</v>
@@ -1943,19 +1943,19 @@
         <v>1187846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1162528</v>
+        <v>1164749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1209307</v>
+        <v>1208552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8906131581393422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8716304744309058</v>
+        <v>0.8732952900773348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.906703424190467</v>
+        <v>0.9061373509234479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1972</v>
@@ -1964,19 +1964,19 @@
         <v>2110915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2081141</v>
+        <v>2082618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2138850</v>
+        <v>2137172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9147789184342358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9018764296740686</v>
+        <v>0.9025162971275386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9268847455118933</v>
+        <v>0.9261576330225317</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>48569</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35462</v>
+        <v>36124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66260</v>
+        <v>66442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02477958311627954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01809255058308019</v>
+        <v>0.01843033534837545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0338055169947109</v>
+        <v>0.03389842469685721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -2089,19 +2089,19 @@
         <v>90344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73228</v>
+        <v>72019</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113484</v>
+        <v>109908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05157184308607289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04180110698804766</v>
+        <v>0.04111127913877258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06478049787370634</v>
+        <v>0.06273947224568539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -2110,19 +2110,19 @@
         <v>138913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114365</v>
+        <v>116975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165919</v>
+        <v>167116</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03742429921944723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03081091658399147</v>
+        <v>0.03151394381825894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04470004963929122</v>
+        <v>0.04502249825489576</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1911453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1893762</v>
+        <v>1893580</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1924560</v>
+        <v>1923898</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9752204168837204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9661944830052887</v>
+        <v>0.9661015753031427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9819074494169198</v>
+        <v>0.9815696646516245</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1547</v>
@@ -2160,19 +2160,19 @@
         <v>1661474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1638334</v>
+        <v>1641910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1678590</v>
+        <v>1679799</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9484281569139271</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9352195021262938</v>
+        <v>0.9372605277543148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9581988930119524</v>
+        <v>0.9588887208612277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3355</v>
@@ -2181,19 +2181,19 @@
         <v>3572927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3545921</v>
+        <v>3544724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3597475</v>
+        <v>3594865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9625757007805528</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9552999503607087</v>
+        <v>0.9549775017451042</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691890834160085</v>
+        <v>0.968486056181741</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>15456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7421</v>
+        <v>7873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27342</v>
+        <v>28820</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03217824805501434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01544922284177208</v>
+        <v>0.01639138781662602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05692334001877315</v>
+        <v>0.06000043265898355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2306,19 +2306,19 @@
         <v>16574</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9658</v>
+        <v>10044</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26188</v>
+        <v>25905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0362147343191856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02110291081337848</v>
+        <v>0.02194642207243841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05722155011451454</v>
+        <v>0.05660363572344243</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2327,19 +2327,19 @@
         <v>32030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21012</v>
+        <v>21574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45515</v>
+        <v>47736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03414769633143962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02240121793670127</v>
+        <v>0.02300062962992522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04852391466847421</v>
+        <v>0.05089201759437881</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>464876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452990</v>
+        <v>451512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472911</v>
+        <v>472459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9678217519449857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9430766599812268</v>
+        <v>0.9399995673410164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9845507771582279</v>
+        <v>0.9836086121833739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -2377,19 +2377,19 @@
         <v>441080</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>431466</v>
+        <v>431749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447996</v>
+        <v>447610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9637852656808144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9427784498854854</v>
+        <v>0.9433963642765576</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788970891866215</v>
+        <v>0.9780535779275615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>821</v>
@@ -2398,19 +2398,19 @@
         <v>905956</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>892471</v>
+        <v>890250</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>916974</v>
+        <v>916412</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9658523036685603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9514760853315257</v>
+        <v>0.9491079824056208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9775987820632988</v>
+        <v>0.9769993703700748</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>114785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93855</v>
+        <v>93029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140491</v>
+        <v>141405</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03361994105963317</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02748968110932316</v>
+        <v>0.027247680285275</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04114918013859806</v>
+        <v>0.04141681700152609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>235</v>
@@ -2523,19 +2523,19 @@
         <v>252812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223072</v>
+        <v>224148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285115</v>
+        <v>284424</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07135105437317882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06295748081850694</v>
+        <v>0.06326131600779941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08046787278910525</v>
+        <v>0.08027278970579246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -2544,19 +2544,19 @@
         <v>367597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>332760</v>
+        <v>330365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>410408</v>
+        <v>406506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05283537531784122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04782823263215336</v>
+        <v>0.04748398240929118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05898874241637599</v>
+        <v>0.05842784947706169</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3299397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3273691</v>
+        <v>3272777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3320327</v>
+        <v>3321153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9663800589403668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.958850819861402</v>
+        <v>0.9585831829984741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9725103188906769</v>
+        <v>0.9727523197147251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3049</v>
@@ -2594,19 +2594,19 @@
         <v>3290401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3258098</v>
+        <v>3258789</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3320141</v>
+        <v>3319065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9286489456268212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9195321272108946</v>
+        <v>0.9197272102942072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9370425191814929</v>
+        <v>0.9367386839922005</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6148</v>
@@ -2615,19 +2615,19 @@
         <v>6589798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6546987</v>
+        <v>6550889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6624635</v>
+        <v>6627030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9471646246821588</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.941011257583624</v>
+        <v>0.9415721505229383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9521717673678466</v>
+        <v>0.9525160175907088</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>38074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26685</v>
+        <v>27336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49354</v>
+        <v>52432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05047214430899551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03537500386267419</v>
+        <v>0.03623753514152308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06542591586877854</v>
+        <v>0.06950685143957494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -2979,19 +2979,19 @@
         <v>126349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104969</v>
+        <v>104906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151724</v>
+        <v>148208</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1270275788023694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.105533019838458</v>
+        <v>0.105469493557552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1525388363341437</v>
+        <v>0.1490037516568813</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -3000,19 +3000,19 @@
         <v>164423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141307</v>
+        <v>139702</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192419</v>
+        <v>191869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09400921640265893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08079292331336836</v>
+        <v>0.07987500986115441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1100162786612353</v>
+        <v>0.1097014947702126</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>716273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>704993</v>
+        <v>701915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>727662</v>
+        <v>727011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9495278556910045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9345740841312213</v>
+        <v>0.9304931485604251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9646249961373258</v>
+        <v>0.9637624648584769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>779</v>
@@ -3050,19 +3050,19 @@
         <v>868311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>842936</v>
+        <v>846452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>889691</v>
+        <v>889754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8729724211976305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8474611636658562</v>
+        <v>0.8509962483431187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.894466980161542</v>
+        <v>0.8945305064424479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1503</v>
@@ -3071,19 +3071,19 @@
         <v>1584584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1556588</v>
+        <v>1557138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1607700</v>
+        <v>1609305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9059907835973411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8899837213387647</v>
+        <v>0.8902985052297874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9192070766866317</v>
+        <v>0.9201249901388456</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>65106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50773</v>
+        <v>49589</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82794</v>
+        <v>81568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03135546582904519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02445280911559524</v>
+        <v>0.02388215194211759</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03987397785874249</v>
+        <v>0.03928375791773444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -3196,19 +3196,19 @@
         <v>129947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110235</v>
+        <v>108744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156485</v>
+        <v>152914</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06535582362454714</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0554418085409127</v>
+        <v>0.05469204225617247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07870313530113715</v>
+        <v>0.07690669958165694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -3217,19 +3217,19 @@
         <v>195053</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>169810</v>
+        <v>167756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224725</v>
+        <v>226143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04798723756640137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04177700196590518</v>
+        <v>0.04127168639859968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05528709388863016</v>
+        <v>0.05563605269833074</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2011279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1993591</v>
+        <v>1994817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2025612</v>
+        <v>2026796</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9686445341709549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9601260221412575</v>
+        <v>0.9607162420822657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755471908844048</v>
+        <v>0.9761178480578825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1788</v>
@@ -3267,19 +3267,19 @@
         <v>1858353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1831815</v>
+        <v>1835386</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1878065</v>
+        <v>1879556</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9346441763754528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9212968646988628</v>
+        <v>0.9230933004183431</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9445581914590875</v>
+        <v>0.9453079577438277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3679</v>
@@ -3288,19 +3288,19 @@
         <v>3869632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3839960</v>
+        <v>3838542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3894875</v>
+        <v>3896929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9520127624335987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9447129061113698</v>
+        <v>0.9443639473016694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9582229980340948</v>
+        <v>0.9587283136014003</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>14985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8633</v>
+        <v>8644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24204</v>
+        <v>25201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02740121856021471</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01578497886699728</v>
+        <v>0.01580669444641198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04425786248329642</v>
+        <v>0.04608111696298158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3413,19 +3413,19 @@
         <v>13382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6932</v>
+        <v>6830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22638</v>
+        <v>22997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02436885982454896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.012623064228093</v>
+        <v>0.01243698170060748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04122475755664972</v>
+        <v>0.04187864543091608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3434,19 +3434,19 @@
         <v>28367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18344</v>
+        <v>19402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42141</v>
+        <v>41541</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02588192094186001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01673680211203163</v>
+        <v>0.0177022185276165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03844910323646132</v>
+        <v>0.03790136332139368</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>531901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522682</v>
+        <v>521685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538253</v>
+        <v>538242</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9725987814397853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9557421375167038</v>
+        <v>0.9539188830370184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842150211330029</v>
+        <v>0.9841933055535881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>514</v>
@@ -3484,19 +3484,19 @@
         <v>535758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>526502</v>
+        <v>526143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>542208</v>
+        <v>542310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9756311401754511</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9587752424433503</v>
+        <v>0.9581213545690841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.987376935771907</v>
+        <v>0.9875630182993925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1001</v>
@@ -3505,19 +3505,19 @@
         <v>1067660</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053886</v>
+        <v>1054486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1077683</v>
+        <v>1076625</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.97411807905814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9615508967635387</v>
+        <v>0.9620986366786063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9832631978879683</v>
+        <v>0.9822977814723834</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>118165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100131</v>
+        <v>98056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143470</v>
+        <v>140576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03498467490223157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02964556586239653</v>
+        <v>0.02903120186222825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04247682810810962</v>
+        <v>0.04161987304265875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -3630,19 +3630,19 @@
         <v>269678</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>236772</v>
+        <v>237769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302742</v>
+        <v>310115</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07635065286522677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06703442858193974</v>
+        <v>0.06731652399953501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08571162072456977</v>
+        <v>0.08779895718108742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -3651,19 +3651,19 @@
         <v>387843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>349825</v>
+        <v>350684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>430748</v>
+        <v>428354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05613007965830633</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05062801445646145</v>
+        <v>0.05075231504920749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06233947469941539</v>
+        <v>0.06199300067458691</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3259453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3234148</v>
+        <v>3237042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3277487</v>
+        <v>3279562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9650153250977684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9575231718918904</v>
+        <v>0.9583801269573413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9703544341376035</v>
+        <v>0.9709687981377717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3081</v>
@@ -3701,19 +3701,19 @@
         <v>3262422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3229358</v>
+        <v>3221985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3295328</v>
+        <v>3294331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9236493471347732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9142883792754303</v>
+        <v>0.9122010428189126</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9329655714180604</v>
+        <v>0.9326834760004651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6183</v>
@@ -3722,19 +3722,19 @@
         <v>6521875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6478970</v>
+        <v>6481364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6559893</v>
+        <v>6559034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9438699203416937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9376605253005845</v>
+        <v>0.9380069993254133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9493719855435383</v>
+        <v>0.9492476849507927</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>47850</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36377</v>
+        <v>36334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61810</v>
+        <v>60453</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08292178316649849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06303918019709819</v>
+        <v>0.06296522961686207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1071134703736496</v>
+        <v>0.1047633966548187</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -4086,19 +4086,19 @@
         <v>143750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128287</v>
+        <v>127009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>161536</v>
+        <v>159864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1754959257089115</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1566180943698349</v>
+        <v>0.1550574098604673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1972100569025483</v>
+        <v>0.1951682534711785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -4107,19 +4107,19 @@
         <v>191600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170541</v>
+        <v>172649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213630</v>
+        <v>214025</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1372339309433073</v>
+        <v>0.1372339309433074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1221504605903961</v>
+        <v>0.1236605741506598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1530134092984698</v>
+        <v>0.1532958807778954</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>529197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>515237</v>
+        <v>516594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>540670</v>
+        <v>540713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9170782168335017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8928865296263513</v>
+        <v>0.8952366033451814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.936960819802902</v>
+        <v>0.9370347703831379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1173</v>
@@ -4157,19 +4157,19 @@
         <v>675357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657571</v>
+        <v>659243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690820</v>
+        <v>692098</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8245040742910885</v>
+        <v>0.8245040742910882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8027899430974518</v>
+        <v>0.8048317465288218</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8433819056301652</v>
+        <v>0.8449425901395325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1804</v>
@@ -4178,19 +4178,19 @@
         <v>1204554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1182524</v>
+        <v>1182129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1225613</v>
+        <v>1223505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8627660690566926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8469865907015303</v>
+        <v>0.8467041192221046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.877849539409604</v>
+        <v>0.8763394258493403</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>86634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71239</v>
+        <v>68890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108065</v>
+        <v>106496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03883942939321419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03193759258856945</v>
+        <v>0.03088465246580125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04844752922151725</v>
+        <v>0.04774386943896925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -4303,19 +4303,19 @@
         <v>145546</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126814</v>
+        <v>128164</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168218</v>
+        <v>165192</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0670498182209487</v>
+        <v>0.06704981822094869</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05842052110011445</v>
+        <v>0.05904234356248769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07749463019963887</v>
+        <v>0.07610053318757948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>315</v>
@@ -4324,19 +4324,19 @@
         <v>232179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>205319</v>
+        <v>206750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>260920</v>
+        <v>259978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05275278746678997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04664997395821944</v>
+        <v>0.04697508977650206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05928283915018421</v>
+        <v>0.05906883757349352</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2143932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2122501</v>
+        <v>2124070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2159327</v>
+        <v>2161676</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9611605706067859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9515524707784826</v>
+        <v>0.9522561305610306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9680624074114305</v>
+        <v>0.9691153475341984</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2695</v>
@@ -4374,19 +4374,19 @@
         <v>2025161</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2002489</v>
+        <v>2005515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2043893</v>
+        <v>2042543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9329501817790513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9225053698003611</v>
+        <v>0.9238994668124204</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9415794788998856</v>
+        <v>0.9409576564375124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4597</v>
@@ -4395,19 +4395,19 @@
         <v>4169095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4140354</v>
+        <v>4141296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4195955</v>
+        <v>4194524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9472472125332101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9407171608498158</v>
+        <v>0.9409311624265064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.953350026041779</v>
+        <v>0.9530249102234978</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>15957</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9471</v>
+        <v>9842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24569</v>
+        <v>25199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02242395472604673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01330941369961171</v>
+        <v>0.01383045208750468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0345267363464702</v>
+        <v>0.03541191303124603</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -4520,19 +4520,19 @@
         <v>24123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17164</v>
+        <v>16511</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32898</v>
+        <v>33184</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03282596905384898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02335576392244447</v>
+        <v>0.02246735168564993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04476622935018902</v>
+        <v>0.04515584473063369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -4541,19 +4541,19 @@
         <v>40080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29842</v>
+        <v>29910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52127</v>
+        <v>52040</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02770870592363174</v>
+        <v>0.02770870592363173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0206307654965575</v>
+        <v>0.02067767424397243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03603783782837639</v>
+        <v>0.03597720716208157</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>695630</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>687018</v>
+        <v>686388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>702116</v>
+        <v>701745</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9775760452739533</v>
+        <v>0.9775760452739531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9654732636535298</v>
+        <v>0.964588086968754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9866905863003883</v>
+        <v>0.9861695479124952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>968</v>
@@ -4591,19 +4591,19 @@
         <v>710754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>701979</v>
+        <v>701693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717713</v>
+        <v>718366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.967174030946151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9552337706498111</v>
+        <v>0.9548441552693664</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9766442360775558</v>
+        <v>0.9775326483143502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1630</v>
@@ -4612,19 +4612,19 @@
         <v>1406384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1394337</v>
+        <v>1394424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1416622</v>
+        <v>1416554</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9722912940763684</v>
+        <v>0.9722912940763682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9639621621716233</v>
+        <v>0.9640227928379184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9793692345034423</v>
+        <v>0.9793223257560262</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>150440</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>128468</v>
+        <v>126798</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176659</v>
+        <v>177076</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04274842776174935</v>
+        <v>0.04274842776174934</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03650480568153981</v>
+        <v>0.03603043551699395</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05019868290812222</v>
+        <v>0.05031703763468564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>510</v>
@@ -4737,19 +4737,19 @@
         <v>313418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>287561</v>
+        <v>288370</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>341603</v>
+        <v>340386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0841461640589472</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07720393330232249</v>
+        <v>0.07742109930158708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09171322874929144</v>
+        <v>0.09138637778526465</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>677</v>
@@ -4758,19 +4758,19 @@
         <v>463859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>430642</v>
+        <v>426346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>505526</v>
+        <v>499625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06403447070925765</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05944899800573186</v>
+        <v>0.05885586674606282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0697865636415293</v>
+        <v>0.06897189110017733</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3368760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3342541</v>
+        <v>3342124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3390732</v>
+        <v>3392402</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9572515722382506</v>
+        <v>0.9572515722382507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.949801317091878</v>
+        <v>0.9496829623653144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9634951943184602</v>
+        <v>0.963969564483006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4836</v>
@@ -4808,19 +4808,19 @@
         <v>3411273</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3383088</v>
+        <v>3384305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3437130</v>
+        <v>3436321</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9158538359410527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9082867712507086</v>
+        <v>0.9086136222147355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9227960666976781</v>
+        <v>0.9225789006984133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8031</v>
@@ -4829,19 +4829,19 @@
         <v>6780033</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6738366</v>
+        <v>6744267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6813250</v>
+        <v>6817546</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9359655292907423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9302134363584704</v>
+        <v>0.9310281088998228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9405510019942682</v>
+        <v>0.9411441332539372</v>
       </c>
     </row>
     <row r="15">
